--- a/Master.xlsx
+++ b/Master.xlsx
@@ -65,7 +65,7 @@
     <t>tanmay.nayak</t>
   </si>
   <si>
-    <t>Citi5bank$1234</t>
+    <t>Citi5bank$123456</t>
   </si>
   <si>
     <t>PLN/0183/24-25</t>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>

--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -65,7 +65,7 @@
     <t>tanmay.nayak</t>
   </si>
   <si>
-    <t>Citi5bank$123456</t>
+    <t>Citi5bank$1234567</t>
   </si>
   <si>
     <t>PLN/0183/24-25</t>
@@ -1031,7 +1031,7 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelRow="1"/>
